--- a/medicine/Pharmacie/Temu_giring/Temu_giring.xlsx
+++ b/medicine/Pharmacie/Temu_giring/Temu_giring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curcuma heyneana
 Le Temu giring (Curcuma heyneana) est une espèce de plante herbacée rhizomateuse vivace du genre Curcuma de la famille des Zingibéracées.
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,7 +554,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On s'en sert comme plante médicinale dans la médecine traditionnelle javanaise.
 Ces herbes sont efficaces en tant que vermifuges car elles contiennent du Citrate de pipérazine, qui est connu pour repousser les attaques d'Ascaridiose.
